--- a/publication-sce/publications.xlsx
+++ b/publication-sce/publications.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ish/Desktop/current-git-sce-projects/carleton-projects/publication-sce/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0EE9A6-2416-E846-AB1A-9AAD7C6E0309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -229,8 +235,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +299,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -339,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,9 +385,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,6 +437,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,667 +630,573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
         <v>59</v>
       </c>
-      <c r="F28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33">
+      <c r="E33">
         <v>0</v>
       </c>
     </row>
